--- a/data/occupation_exposure_eval_responden_indhy.xlsx
+++ b/data/occupation_exposure_eval_responden_indhy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nabila\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{031779E9-2E93-4B55-AA7F-8B6458F15C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66093550-5290-47DA-A4C3-0436D6A6F4B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pelabelan" sheetId="1" r:id="rId1"/>
@@ -2606,16 +2606,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y327"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="74" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A317" zoomScale="74" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E325" sqref="E325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="70.453125" customWidth="1"/>
-    <col min="3" max="3" width="64.81640625" customWidth="1"/>
+    <col min="3" max="3" width="46.81640625" customWidth="1"/>
     <col min="4" max="4" width="16" style="19" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" customWidth="1"/>
     <col min="6" max="25" width="9.1796875" customWidth="1"/>
@@ -3842,11 +3842,11 @@
         <v>146</v>
       </c>
       <c r="D68" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E68" s="16">
         <f>SUM(D68:D76)/COUNT(D68:D76)</f>
-        <v>0.77777777777777779</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -3858,7 +3858,7 @@
         <v>148</v>
       </c>
       <c r="D69" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E69" s="16"/>
     </row>
@@ -3884,7 +3884,7 @@
         <v>152</v>
       </c>
       <c r="D71" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E71" s="16"/>
     </row>
@@ -3910,7 +3910,7 @@
         <v>156</v>
       </c>
       <c r="D73" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E73" s="16"/>
     </row>
@@ -3923,7 +3923,7 @@
         <v>158</v>
       </c>
       <c r="D74" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E74" s="16"/>
     </row>
@@ -4304,11 +4304,11 @@
         <v>218</v>
       </c>
       <c r="D102" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E102" s="16">
         <f>SUM(D102:D107)/COUNT(D102:D107)</f>
-        <v>0.70000000000000007</v>
+        <v>0.18333333333333332</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -4320,7 +4320,7 @@
         <v>220</v>
       </c>
       <c r="D103" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E103" s="16"/>
     </row>
@@ -4333,7 +4333,7 @@
         <v>222</v>
       </c>
       <c r="D104" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E104" s="16"/>
     </row>
@@ -4346,7 +4346,7 @@
         <v>224</v>
       </c>
       <c r="D105" s="15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E105" s="16"/>
     </row>
@@ -5072,11 +5072,11 @@
         <v>528</v>
       </c>
       <c r="D158" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E158" s="21">
         <f>SUM(D158:D163)/COUNT(D158:D163)</f>
-        <v>0.96666666666666667</v>
+        <v>0.68333333333333324</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -5101,7 +5101,7 @@
         <v>530</v>
       </c>
       <c r="D160" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E160" s="21"/>
     </row>
@@ -5114,7 +5114,7 @@
         <v>531</v>
       </c>
       <c r="D161" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E161" s="21"/>
     </row>
@@ -5140,7 +5140,7 @@
         <v>533</v>
       </c>
       <c r="D163" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E163" s="21"/>
     </row>
@@ -5307,7 +5307,7 @@
       </c>
       <c r="E175" s="21">
         <f>SUM(D175:D181)/COUNT(D175:D181)</f>
-        <v>0.74285714285714288</v>
+        <v>0.5714285714285714</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -5332,7 +5332,7 @@
         <v>547</v>
       </c>
       <c r="D177" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E177" s="21"/>
     </row>
@@ -5358,7 +5358,7 @@
         <v>549</v>
       </c>
       <c r="D179" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E179" s="21"/>
     </row>
@@ -5371,7 +5371,7 @@
         <v>550</v>
       </c>
       <c r="D180" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E180" s="21"/>
     </row>
@@ -5403,10 +5403,10 @@
       </c>
       <c r="E182" s="21">
         <f>SUM(D182:D189)/COUNT(D182:D189)</f>
-        <v>0.41249999999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.16250000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="14"/>
       <c r="B183" s="17" t="s">
         <v>346</v>
@@ -5415,7 +5415,7 @@
         <v>553</v>
       </c>
       <c r="D183" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E183" s="21"/>
     </row>
@@ -5432,7 +5432,7 @@
       </c>
       <c r="E184" s="21"/>
     </row>
-    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="14"/>
       <c r="B185" s="17" t="s">
         <v>348</v>
@@ -5441,7 +5441,7 @@
         <v>555</v>
       </c>
       <c r="D185" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E185" s="21"/>
     </row>
@@ -5458,7 +5458,7 @@
       </c>
       <c r="E186" s="21"/>
     </row>
-    <row r="187" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A187" s="14"/>
       <c r="B187" s="17" t="s">
         <v>350</v>
@@ -5467,7 +5467,7 @@
         <v>557</v>
       </c>
       <c r="D187" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E187" s="21"/>
     </row>
@@ -5484,7 +5484,7 @@
       </c>
       <c r="E188" s="21"/>
     </row>
-    <row r="189" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A189" s="14"/>
       <c r="B189" s="17" t="s">
         <v>352</v>
@@ -5493,7 +5493,7 @@
         <v>559</v>
       </c>
       <c r="D189" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E189" s="21"/>
     </row>
@@ -5580,7 +5580,7 @@
       </c>
       <c r="E195" s="21"/>
     </row>
-    <row r="196" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A196" s="18" t="s">
         <v>360</v>
       </c>
@@ -5591,14 +5591,14 @@
         <v>565</v>
       </c>
       <c r="D196" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E196" s="21">
         <f>SUM(D196:D206)/COUNT(D196:D206)</f>
-        <v>0.84545454545454557</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>0.38181818181818183</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="14"/>
       <c r="B197" s="17" t="s">
         <v>362</v>
@@ -5607,11 +5607,11 @@
         <v>566</v>
       </c>
       <c r="D197" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E197" s="21"/>
     </row>
-    <row r="198" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="14"/>
       <c r="B198" s="17" t="s">
         <v>363</v>
@@ -5620,11 +5620,11 @@
         <v>567</v>
       </c>
       <c r="D198" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E198" s="21"/>
     </row>
-    <row r="199" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A199" s="14"/>
       <c r="B199" s="17" t="s">
         <v>364</v>
@@ -5633,11 +5633,11 @@
         <v>568</v>
       </c>
       <c r="D199" s="15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E199" s="21"/>
     </row>
-    <row r="200" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A200" s="14"/>
       <c r="B200" s="17" t="s">
         <v>365</v>
@@ -5646,7 +5646,7 @@
         <v>569</v>
       </c>
       <c r="D200" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E200" s="21"/>
     </row>
@@ -5659,7 +5659,7 @@
         <v>570</v>
       </c>
       <c r="D201" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E201" s="21"/>
     </row>
@@ -5676,7 +5676,7 @@
       </c>
       <c r="E202" s="21"/>
     </row>
-    <row r="203" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="14"/>
       <c r="B203" s="17" t="s">
         <v>368</v>
@@ -5685,11 +5685,11 @@
         <v>572</v>
       </c>
       <c r="D203" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E203" s="21"/>
     </row>
-    <row r="204" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A204" s="14"/>
       <c r="B204" s="17" t="s">
         <v>369</v>
@@ -5698,7 +5698,7 @@
         <v>573</v>
       </c>
       <c r="D204" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E204" s="21"/>
     </row>
@@ -5743,10 +5743,10 @@
       </c>
       <c r="E207" s="21">
         <f>SUM(D207:D216)/COUNT(D207:D216)</f>
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="14"/>
       <c r="B208" s="17" t="s">
         <v>374</v>
@@ -5755,11 +5755,11 @@
         <v>577</v>
       </c>
       <c r="D208" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E208" s="21"/>
     </row>
-    <row r="209" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A209" s="14"/>
       <c r="B209" s="17" t="s">
         <v>375</v>
@@ -5768,7 +5768,7 @@
         <v>578</v>
       </c>
       <c r="D209" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E209" s="21"/>
     </row>
@@ -5781,7 +5781,7 @@
         <v>579</v>
       </c>
       <c r="D210" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E210" s="21"/>
     </row>
@@ -5794,11 +5794,11 @@
         <v>580</v>
       </c>
       <c r="D211" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E211" s="21"/>
     </row>
-    <row r="212" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A212" s="14"/>
       <c r="B212" s="17" t="s">
         <v>378</v>
@@ -5807,7 +5807,7 @@
         <v>581</v>
       </c>
       <c r="D212" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E212" s="21"/>
     </row>
@@ -5874,14 +5874,14 @@
         <v>586</v>
       </c>
       <c r="D217" s="15">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E217" s="21">
         <f>SUM(D217:D223)/COUNT(D217:D223)</f>
-        <v>0.7142857142857143</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+        <v>0.22857142857142859</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="14"/>
       <c r="B218" s="17" t="s">
         <v>385</v>
@@ -5890,7 +5890,7 @@
         <v>587</v>
       </c>
       <c r="D218" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E218" s="21"/>
     </row>
@@ -5903,7 +5903,7 @@
         <v>588</v>
       </c>
       <c r="D219" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E219" s="21"/>
     </row>
@@ -5916,7 +5916,7 @@
         <v>589</v>
       </c>
       <c r="D220" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E220" s="21"/>
     </row>
@@ -5946,7 +5946,7 @@
       </c>
       <c r="E222" s="21"/>
     </row>
-    <row r="223" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="14"/>
       <c r="B223" s="17" t="s">
         <v>390</v>
@@ -5955,7 +5955,7 @@
         <v>592</v>
       </c>
       <c r="D223" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E223" s="21"/>
     </row>
@@ -6055,7 +6055,7 @@
       </c>
       <c r="E230" s="21"/>
     </row>
-    <row r="231" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A231" s="18" t="s">
         <v>399</v>
       </c>
@@ -6066,11 +6066,11 @@
         <v>600</v>
       </c>
       <c r="D231" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E231" s="21">
         <f>SUM(D231:D237)/COUNT(D231:D237)</f>
-        <v>0.88571428571428579</v>
+        <v>0.24285714285714285</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6082,7 +6082,7 @@
         <v>601</v>
       </c>
       <c r="D232" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E232" s="21"/>
     </row>
@@ -6095,11 +6095,11 @@
         <v>602</v>
       </c>
       <c r="D233" s="15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E233" s="21"/>
     </row>
-    <row r="234" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A234" s="14"/>
       <c r="B234" s="17" t="s">
         <v>403</v>
@@ -6108,7 +6108,7 @@
         <v>603</v>
       </c>
       <c r="D234" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E234" s="21"/>
     </row>
@@ -6121,11 +6121,11 @@
         <v>604</v>
       </c>
       <c r="D235" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E235" s="21"/>
     </row>
-    <row r="236" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A236" s="14"/>
       <c r="B236" s="17" t="s">
         <v>405</v>
@@ -6134,7 +6134,7 @@
         <v>605</v>
       </c>
       <c r="D236" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E236" s="21"/>
     </row>
@@ -6147,11 +6147,11 @@
         <v>606</v>
       </c>
       <c r="D237" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E237" s="21"/>
     </row>
-    <row r="238" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A238" s="18" t="s">
         <v>407</v>
       </c>
@@ -6162,11 +6162,11 @@
         <v>607</v>
       </c>
       <c r="D238" s="15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E238" s="21">
         <f>SUM(D238:D249)/COUNT(D238:D249)</f>
-        <v>0.75833333333333319</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -6178,7 +6178,7 @@
         <v>608</v>
       </c>
       <c r="D239" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E239" s="21"/>
     </row>
@@ -6191,11 +6191,11 @@
         <v>609</v>
       </c>
       <c r="D240" s="15">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E240" s="21"/>
     </row>
-    <row r="241" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A241" s="14"/>
       <c r="B241" s="17" t="s">
         <v>411</v>
@@ -6204,11 +6204,11 @@
         <v>610</v>
       </c>
       <c r="D241" s="15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E241" s="21"/>
     </row>
-    <row r="242" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A242" s="14"/>
       <c r="B242" s="17" t="s">
         <v>412</v>
@@ -6217,11 +6217,11 @@
         <v>611</v>
       </c>
       <c r="D242" s="15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E242" s="21"/>
     </row>
-    <row r="243" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A243" s="14"/>
       <c r="B243" s="17" t="s">
         <v>413</v>
@@ -6230,7 +6230,7 @@
         <v>612</v>
       </c>
       <c r="D243" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E243" s="21"/>
     </row>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E244" s="21"/>
     </row>
-    <row r="245" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A245" s="14"/>
       <c r="B245" s="17" t="s">
         <v>415</v>
@@ -6256,11 +6256,11 @@
         <v>614</v>
       </c>
       <c r="D245" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E245" s="21"/>
     </row>
-    <row r="246" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A246" s="14"/>
       <c r="B246" s="17" t="s">
         <v>416</v>
@@ -6269,11 +6269,11 @@
         <v>675</v>
       </c>
       <c r="D246" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E246" s="21"/>
     </row>
-    <row r="247" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A247" s="14"/>
       <c r="B247" s="17" t="s">
         <v>417</v>
@@ -6282,7 +6282,7 @@
         <v>616</v>
       </c>
       <c r="D247" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E247" s="21"/>
     </row>
@@ -6295,11 +6295,11 @@
         <v>617</v>
       </c>
       <c r="D248" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E248" s="21"/>
     </row>
-    <row r="249" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A249" s="14"/>
       <c r="B249" s="17" t="s">
         <v>419</v>
@@ -6308,11 +6308,11 @@
         <v>618</v>
       </c>
       <c r="D249" s="15">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E249" s="21"/>
     </row>
-    <row r="250" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A250" s="18" t="s">
         <v>420</v>
       </c>
@@ -6323,14 +6323,14 @@
         <v>619</v>
       </c>
       <c r="D250" s="15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E250" s="21">
         <f>SUM(D250:D257)/COUNT(D250:D257)</f>
-        <v>0.88749999999999996</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>0.42500000000000004</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A251" s="14"/>
       <c r="B251" s="17" t="s">
         <v>422</v>
@@ -6339,7 +6339,7 @@
         <v>620</v>
       </c>
       <c r="D251" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E251" s="21"/>
     </row>
@@ -6378,7 +6378,7 @@
         <v>623</v>
       </c>
       <c r="D254" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E254" s="21"/>
     </row>
@@ -6391,7 +6391,7 @@
         <v>624</v>
       </c>
       <c r="D255" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E255" s="21"/>
     </row>
@@ -6404,7 +6404,7 @@
         <v>625</v>
       </c>
       <c r="D256" s="15">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E256" s="21"/>
     </row>
@@ -6417,7 +6417,7 @@
         <v>626</v>
       </c>
       <c r="D257" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257" s="21"/>
     </row>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="E258" s="21">
         <f>SUM(D258:D265)/COUNT(D258:D265)</f>
-        <v>0.5625</v>
+        <v>0.36249999999999999</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -6500,7 +6500,7 @@
         <v>632</v>
       </c>
       <c r="D263" s="15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E263" s="21"/>
     </row>
@@ -6513,11 +6513,11 @@
         <v>633</v>
       </c>
       <c r="D264" s="15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E264" s="21"/>
     </row>
-    <row r="265" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A265" s="14"/>
       <c r="B265" s="17" t="s">
         <v>437</v>
@@ -6526,7 +6526,7 @@
         <v>634</v>
       </c>
       <c r="D265" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E265" s="21"/>
     </row>
@@ -6545,10 +6545,10 @@
       </c>
       <c r="E266" s="21">
         <f>SUM(D266:D274)/COUNT(D266:D274)</f>
-        <v>0.63749999999999996</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A267" s="14"/>
       <c r="B267" s="17" t="s">
         <v>440</v>
@@ -6557,7 +6557,7 @@
         <v>636</v>
       </c>
       <c r="D267" s="15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E267" s="21"/>
     </row>
@@ -6574,7 +6574,7 @@
       </c>
       <c r="E268" s="21"/>
     </row>
-    <row r="269" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A269" s="14"/>
       <c r="B269" s="17" t="s">
         <v>442</v>
@@ -6582,7 +6582,9 @@
       <c r="C269" s="17" t="s">
         <v>638</v>
       </c>
-      <c r="D269" s="15"/>
+      <c r="D269" s="15">
+        <v>0</v>
+      </c>
       <c r="E269" s="21"/>
     </row>
     <row r="270" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -6607,11 +6609,11 @@
         <v>640</v>
       </c>
       <c r="D271" s="15">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E271" s="21"/>
     </row>
-    <row r="272" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A272" s="14"/>
       <c r="B272" s="17" t="s">
         <v>445</v>
@@ -6620,7 +6622,7 @@
         <v>641</v>
       </c>
       <c r="D272" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E272" s="21"/>
     </row>
@@ -6637,7 +6639,7 @@
       </c>
       <c r="E273" s="21"/>
     </row>
-    <row r="274" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A274" s="14"/>
       <c r="B274" s="17" t="s">
         <v>447</v>
@@ -6646,7 +6648,7 @@
         <v>643</v>
       </c>
       <c r="D274" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E274" s="21"/>
     </row>
@@ -6995,7 +6997,7 @@
       </c>
       <c r="E299" s="21"/>
     </row>
-    <row r="300" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A300" s="18" t="s">
         <v>477</v>
       </c>
@@ -7006,11 +7008,11 @@
         <v>669</v>
       </c>
       <c r="D300" s="15">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E300" s="21">
         <f>SUM(D300:D306)/COUNT(D300:D306)</f>
-        <v>0.77142857142857146</v>
+        <v>0.38571428571428573</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7048,11 +7050,11 @@
         <v>672</v>
       </c>
       <c r="D303" s="15">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E303" s="21"/>
     </row>
-    <row r="304" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A304" s="14"/>
       <c r="B304" s="17" t="s">
         <v>482</v>
@@ -7061,7 +7063,7 @@
         <v>673</v>
       </c>
       <c r="D304" s="15">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E304" s="21"/>
     </row>
@@ -7074,11 +7076,11 @@
         <v>674</v>
       </c>
       <c r="D305" s="15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E305" s="21"/>
     </row>
-    <row r="306" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A306" s="14"/>
       <c r="B306" s="17" t="s">
         <v>484</v>
@@ -7087,7 +7089,7 @@
         <v>697</v>
       </c>
       <c r="D306" s="20">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E306" s="21"/>
     </row>
@@ -7322,7 +7324,7 @@
       </c>
       <c r="E323" s="21"/>
     </row>
-    <row r="324" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A324" s="18" t="s">
         <v>504</v>
       </c>
@@ -7333,11 +7335,11 @@
         <v>693</v>
       </c>
       <c r="D324" s="15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E324" s="21">
         <f>SUM(D324:D327)/COUNT(D324:D327)</f>
-        <v>0.72500000000000009</v>
+        <v>0.17499999999999999</v>
       </c>
     </row>
     <row r="325" spans="1:5" ht="14.5" x14ac:dyDescent="0.35">
@@ -7349,7 +7351,7 @@
         <v>694</v>
       </c>
       <c r="D325" s="20">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E325" s="21"/>
     </row>
@@ -7362,7 +7364,7 @@
         <v>695</v>
       </c>
       <c r="D326" s="20">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E326" s="21"/>
     </row>
@@ -7375,7 +7377,7 @@
         <v>696</v>
       </c>
       <c r="D327" s="20">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E327" s="21"/>
     </row>
